--- a/Datascraping/output_excel_files_new/Andhra University, Visakhapatnam_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Andhra University, Visakhapatnam_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4431,83 +4431,6 @@
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>1. Does your institute have a valid NAAC Accreditation?</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Valid from</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Valid upto</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>CGPA</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>19-02-2016</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>18-02-2023</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
